--- a/cluster_bangalore.xlsx
+++ b/cluster_bangalore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>500</v>
+        <v>553</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>342</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>927</v>
+        <v>872</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>354</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>619</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>394</v>
+        <v>767</v>
       </c>
     </row>
     <row r="8">
@@ -558,29 +558,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Bangalore</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" t="n">
-        <v>14</v>
-      </c>
-      <c r="D9" t="n">
-        <v>340</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
